--- a/data/Pablo RodriguezT3-2025.xlsx
+++ b/data/Pablo RodriguezT3-2025.xlsx
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5.79643214</v>
+        <v>0.09048016000000003</v>
       </c>
     </row>
   </sheetData>
